--- a/data/trans_dic/P1423-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -618,11 +639,14 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -685,54 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>1,38; 3,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,84</t>
+          <t>2,47; 5,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,33</t>
+          <t>1,66; 4,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 12,3</t>
+          <t>5,8; 10,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,06</t>
+          <t>4,86; 8,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 23,74</t>
+          <t>10,47; 15,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,26</t>
+          <t>9,31; 14,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,59</t>
+          <t>8,14; 12,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,59</t>
+          <t>3,3; 5,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 9,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 8,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 10,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -795,54 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,3</t>
+          <t>1,95; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,55</t>
+          <t>3,4; 6,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,99</t>
+          <t>1,4; 3,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,7</t>
+          <t>1,93; 5,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,66</t>
+          <t>6,17; 9,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,84</t>
+          <t>9,43; 13,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,96</t>
+          <t>7,25; 11,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,7</t>
+          <t>9,79; 13,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,52</t>
+          <t>4,35; 6,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 9,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 6,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 8,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,11</t>
+          <t>2,33; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,23</t>
+          <t>2,06; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,2</t>
+          <t>2,46; 5,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,84</t>
+          <t>4,15; 8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 13,34</t>
+          <t>5,98; 9,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,06</t>
+          <t>7,88; 12,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,36</t>
+          <t>7,17; 11,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 9,39</t>
+          <t>5,49; 14,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,76</t>
+          <t>4,6; 7,13</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 8,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 7,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 10,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,25</t>
+          <t>2,49; 5,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,18</t>
+          <t>3,32; 6,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,43</t>
+          <t>3,26; 5,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,89</t>
+          <t>5,41; 8,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,47</t>
+          <t>6,37; 9,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,49</t>
+          <t>9,52; 13,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,13</t>
+          <t>9,12; 13,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,14</t>
+          <t>9,68; 13,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,78</t>
+          <t>4,93; 7,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 9,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 9,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 10,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -1125,179 +1284,83 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,0</t>
+          <t>2,54; 3,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,36</t>
+          <t>3,43; 4,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,94</t>
+          <t>2,71; 3,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 9,83</t>
+          <t>4,46; 6,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,38</t>
+          <t>6,57; 8,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,2</t>
+          <t>10,44; 12,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,05</t>
+          <t>9,12; 11,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,55</t>
+          <t>9,31; 12,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,29</t>
+          <t>4,78; 5,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 8,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 7,51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 9,33</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>11,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 3,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 4,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 3,9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 8,42</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10,44; 12,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>9,12; 11,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 5,92</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,23; 8,51</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,26; 7,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1423-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,56</t>
+          <t>1,47; 3,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,32</t>
+          <t>2,44; 5,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,17</t>
+          <t>1,67; 4,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,0</t>
+          <t>5,8; 9,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,48</t>
+          <t>4,77; 8,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 15,48</t>
+          <t>10,64; 15,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 14,18</t>
+          <t>9,46; 14,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,48</t>
+          <t>8,03; 12,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,59</t>
+          <t>3,42; 5,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 9,84</t>
+          <t>6,91; 9,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 8,75</t>
+          <t>5,97; 8,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 10,77</t>
+          <t>7,62; 10,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,11</t>
+          <t>1,93; 4,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,23</t>
+          <t>3,37; 6,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,2</t>
+          <t>1,4; 3,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,34</t>
+          <t>1,95; 5,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,84</t>
+          <t>6,18; 9,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 13,34</t>
+          <t>9,52; 13,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,06</t>
+          <t>7,32; 10,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,21</t>
+          <t>9,79; 13,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,36</t>
+          <t>4,38; 6,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 9,39</t>
+          <t>6,94; 9,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,76</t>
+          <t>4,57; 6,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,6</t>
+          <t>4,68; 8,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,25</t>
+          <t>2,22; 4,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,18</t>
+          <t>1,99; 4,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,43</t>
+          <t>2,48; 5,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,12</t>
+          <t>4,31; 8,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,89</t>
+          <t>5,87; 10,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,47</t>
+          <t>7,9; 12,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,49</t>
+          <t>7,07; 11,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 14,4</t>
+          <t>5,84; 14,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,13</t>
+          <t>4,62; 7,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,14</t>
+          <t>5,5; 8,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,78</t>
+          <t>5,33; 7,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,28</t>
+          <t>5,65; 10,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,0</t>
+          <t>2,49; 4,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,36</t>
+          <t>3,42; 6,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,94</t>
+          <t>3,23; 6,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,67</t>
+          <t>5,15; 8,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 9,83</t>
+          <t>6,56; 9,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,38</t>
+          <t>9,59; 13,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,2</t>
+          <t>9,19; 13,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 13,82</t>
+          <t>9,47; 13,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,05</t>
+          <t>4,88; 7,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,55</t>
+          <t>7,08; 9,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,29</t>
+          <t>6,68; 9,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 10,8</t>
+          <t>8,15; 10,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,71</t>
+          <t>2,52; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,98</t>
+          <t>3,48; 4,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,9</t>
+          <t>2,71; 3,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,63</t>
+          <t>4,52; 6,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,71; 8,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,44; 12,49</t>
+          <t>10,24; 12,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,26</t>
+          <t>9,24; 11,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,38</t>
+          <t>8,97; 12,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 5,92</t>
+          <t>4,88; 5,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 8,51</t>
+          <t>7,23; 8,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,51</t>
+          <t>6,14; 7,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 9,33</t>
+          <t>7,44; 9,39</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16291</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25756</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18319</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>48701</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44622</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>90632</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>78905</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>76039</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>60914</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>116388</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>97224</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>124739</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10183; 25982</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17171; 36974</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11291; 27898</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36824; 63249</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32802; 58311</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>74184; 110344</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63621; 96758</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58242; 89487</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47337; 75745</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>96792; 137688</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80440; 118931</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>103660; 143308</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28114</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47963</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22492</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44657</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75560</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>116703</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>94301</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>108805</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>103674</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>164666</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>116793</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>153461</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18577; 41205</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34347; 64146</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14265; 33134</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23273; 64943</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59859; 93077</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>97997; 139379</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76382; 114221</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>93820; 124986</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>84484; 126189</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>142097; 190438</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>94348; 140896</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100792; 182052</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23833</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24931</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27756</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40951</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54120</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>77966</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72276</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>97737</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77953</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>102897</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>138688</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15029; 33795</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15068; 37760</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18835; 39695</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30403; 57044</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40158; 68752</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>61386; 97061</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55512; 90068</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54487; 132071</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>62982; 95515</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>84374; 125041</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>82298; 122024</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>92606; 169143</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33136</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44031</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>42002</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>63059</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>82820</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>120302</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>115714</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>130546</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115955</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>164333</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>157716</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>193605</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23497; 45593</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32450; 59683</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30260; 57629</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47771; 77740</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>68098; 101658</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100902; 141956</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>95950; 139619</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>103706; 150869</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>96693; 139394</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>141598; 191710</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>132434; 183885</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>164760; 218213</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>101374</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>142680</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>110570</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>197367</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>257122</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>405603</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>361195</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>413127</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>358496</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>548283</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>471765</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>610494</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82495; 121211</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>119409; 169596</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>92138; 133487</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>156248; 231927</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>226831; 288464</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>364180; 441185</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>327383; 399455</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>333079; 458157</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>324573; 398476</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>504880; 599533</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>425952; 515234</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>533889; 673135</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>